--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.988550333333333</v>
+        <v>2.888950333333333</v>
       </c>
       <c r="H2">
-        <v>5.965650999999999</v>
+        <v>8.666850999999999</v>
       </c>
       <c r="I2">
-        <v>0.002979254250054934</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="J2">
-        <v>0.002979254250054933</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N2">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q2">
-        <v>0.03956883738277778</v>
+        <v>0.03870230463222222</v>
       </c>
       <c r="R2">
-        <v>0.356119536445</v>
+        <v>0.3483207416899999</v>
       </c>
       <c r="S2">
-        <v>9.771063320730383E-06</v>
+        <v>0.001245973689701112</v>
       </c>
       <c r="T2">
-        <v>9.771063320730382E-06</v>
+        <v>0.001245973689701112</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.988550333333333</v>
+        <v>2.888950333333333</v>
       </c>
       <c r="H3">
-        <v>5.965650999999999</v>
+        <v>8.666850999999999</v>
       </c>
       <c r="I3">
-        <v>0.002979254250054934</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="J3">
-        <v>0.002979254250054933</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N3">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q3">
-        <v>5.012047653301</v>
+        <v>0.3642571547121111</v>
       </c>
       <c r="R3">
-        <v>45.108428879709</v>
+        <v>3.278314392409</v>
       </c>
       <c r="S3">
-        <v>0.001237666765721997</v>
+        <v>0.01172681666814265</v>
       </c>
       <c r="T3">
-        <v>0.001237666765721996</v>
+        <v>0.01172681666814264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.988550333333333</v>
+        <v>2.888950333333333</v>
       </c>
       <c r="H4">
-        <v>5.965650999999999</v>
+        <v>8.666850999999999</v>
       </c>
       <c r="I4">
-        <v>0.002979254250054934</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="J4">
-        <v>0.002979254250054933</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N4">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q4">
-        <v>7.01315303058889</v>
+        <v>0.05815457020999999</v>
       </c>
       <c r="R4">
-        <v>63.1183772753</v>
+        <v>0.52339113189</v>
       </c>
       <c r="S4">
-        <v>0.001731816421012207</v>
+        <v>0.00187221575319856</v>
       </c>
       <c r="T4">
-        <v>0.001731816421012207</v>
+        <v>0.00187221575319856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>37.68593600000001</v>
       </c>
       <c r="I5">
-        <v>0.01882040786417078</v>
+        <v>0.06455031362836973</v>
       </c>
       <c r="J5">
-        <v>0.01882040786417077</v>
+        <v>0.06455031362836972</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N5">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q5">
-        <v>0.2499624388355556</v>
+        <v>0.1682886408711111</v>
       </c>
       <c r="R5">
-        <v>2.249661949520001</v>
+        <v>1.51459776784</v>
       </c>
       <c r="S5">
-        <v>6.172531161427191E-05</v>
+        <v>0.005417848388966186</v>
       </c>
       <c r="T5">
-        <v>6.17253116142719E-05</v>
+        <v>0.005417848388966183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>37.68593600000001</v>
       </c>
       <c r="I6">
-        <v>0.01882040786417078</v>
+        <v>0.06455031362836973</v>
       </c>
       <c r="J6">
-        <v>0.01882040786417077</v>
+        <v>0.06455031362836972</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N6">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q6">
-        <v>31.66187681633601</v>
+        <v>1.583893829491556</v>
       </c>
       <c r="R6">
-        <v>284.9568913470241</v>
+        <v>14.255044465424</v>
       </c>
       <c r="S6">
-        <v>0.007818531543720236</v>
+        <v>0.05099153803836677</v>
       </c>
       <c r="T6">
-        <v>0.007818531543720234</v>
+        <v>0.05099153803836676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>37.68593600000001</v>
       </c>
       <c r="I7">
-        <v>0.01882040786417078</v>
+        <v>0.06455031362836973</v>
       </c>
       <c r="J7">
-        <v>0.01882040786417077</v>
+        <v>0.06455031362836972</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N7">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q7">
-        <v>44.30316762897779</v>
+        <v>0.25287263056</v>
       </c>
       <c r="R7">
-        <v>398.7285086608001</v>
+        <v>2.27585367504</v>
       </c>
       <c r="S7">
-        <v>0.01094015100883627</v>
+        <v>0.008140927201036773</v>
       </c>
       <c r="T7">
-        <v>0.01094015100883627</v>
+        <v>0.008140927201036771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>319.839569</v>
+        <v>94.40225766666667</v>
       </c>
       <c r="H8">
-        <v>959.5187069999999</v>
+        <v>283.206773</v>
       </c>
       <c r="I8">
-        <v>0.4791849516233794</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="J8">
-        <v>0.4791849516233793</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N8">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q8">
-        <v>6.364274357151666</v>
+        <v>1.264675578541111</v>
       </c>
       <c r="R8">
-        <v>57.278469214365</v>
+        <v>11.38208020687</v>
       </c>
       <c r="S8">
-        <v>0.001571583393584764</v>
+        <v>0.04071469417244571</v>
       </c>
       <c r="T8">
-        <v>0.001571583393584764</v>
+        <v>0.0407146941724457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>319.839569</v>
+        <v>94.40225766666667</v>
       </c>
       <c r="H9">
-        <v>959.5187069999999</v>
+        <v>283.206773</v>
       </c>
       <c r="I9">
-        <v>0.4791849516233794</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="J9">
-        <v>0.4791849516233793</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N9">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q9">
-        <v>806.140601204757</v>
+        <v>11.90283452757856</v>
       </c>
       <c r="R9">
-        <v>7255.265410842814</v>
+        <v>107.125510748207</v>
       </c>
       <c r="S9">
-        <v>0.1990670280146194</v>
+        <v>0.3831973003974905</v>
       </c>
       <c r="T9">
-        <v>0.1990670280146193</v>
+        <v>0.3831973003974904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>319.839569</v>
+        <v>94.40225766666667</v>
       </c>
       <c r="H10">
-        <v>959.5187069999999</v>
+        <v>283.206773</v>
       </c>
       <c r="I10">
-        <v>0.4791849516233794</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="J10">
-        <v>0.4791849516233793</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N10">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q10">
-        <v>1127.999530630233</v>
+        <v>1.90031744683</v>
       </c>
       <c r="R10">
-        <v>10151.9957756721</v>
+        <v>17.10285702147</v>
       </c>
       <c r="S10">
-        <v>0.2785463402151753</v>
+        <v>0.06117841206951969</v>
       </c>
       <c r="T10">
-        <v>0.2785463402151752</v>
+        <v>0.06117841206951968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6344013333333334</v>
+        <v>0.421979</v>
       </c>
       <c r="H11">
-        <v>1.903204</v>
+        <v>1.265937</v>
       </c>
       <c r="I11">
-        <v>0.0009504626746890743</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="J11">
-        <v>0.0009504626746890741</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N11">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q11">
-        <v>0.01262352919777778</v>
+        <v>0.005653112003333334</v>
       </c>
       <c r="R11">
-        <v>0.11361176278</v>
+        <v>0.05087800803</v>
       </c>
       <c r="S11">
-        <v>3.117233441290372E-06</v>
+        <v>0.0001819950746608147</v>
       </c>
       <c r="T11">
-        <v>3.117233441290372E-06</v>
+        <v>0.0001819950746608147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6344013333333334</v>
+        <v>0.421979</v>
       </c>
       <c r="H12">
-        <v>1.903204</v>
+        <v>1.265937</v>
       </c>
       <c r="I12">
-        <v>0.0009504626746890743</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="J12">
-        <v>0.0009504626746890741</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N12">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q12">
-        <v>1.598978743804</v>
+        <v>0.05320578485366667</v>
       </c>
       <c r="R12">
-        <v>14.390808694236</v>
+        <v>0.478852063683</v>
       </c>
       <c r="S12">
-        <v>0.0003948491688818482</v>
+        <v>0.00171289561946069</v>
       </c>
       <c r="T12">
-        <v>0.0003948491688818482</v>
+        <v>0.00171289561946069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6344013333333334</v>
+        <v>0.421979</v>
       </c>
       <c r="H13">
-        <v>1.903204</v>
+        <v>1.265937</v>
       </c>
       <c r="I13">
-        <v>0.0009504626746890743</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="J13">
-        <v>0.0009504626746890741</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N13">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q13">
-        <v>2.237385475688889</v>
+        <v>0.00849443727</v>
       </c>
       <c r="R13">
-        <v>20.1364692812</v>
+        <v>0.07644993543</v>
       </c>
       <c r="S13">
-        <v>0.0005524962723659357</v>
+        <v>0.0002734680905391042</v>
       </c>
       <c r="T13">
-        <v>0.0005524962723659356</v>
+        <v>0.0002734680905391042</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>332.4413046666667</v>
+        <v>84.33238866666666</v>
       </c>
       <c r="H14">
-        <v>997.3239140000001</v>
+        <v>252.997166</v>
       </c>
       <c r="I14">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364715</v>
       </c>
       <c r="J14">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364714</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N14">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q14">
-        <v>6.615027894025555</v>
+        <v>1.129772900171111</v>
       </c>
       <c r="R14">
-        <v>59.53525104623001</v>
+        <v>10.16795610154</v>
       </c>
       <c r="S14">
-        <v>0.001633504057641432</v>
+        <v>0.03637166629551434</v>
       </c>
       <c r="T14">
-        <v>0.001633504057641432</v>
+        <v>0.03637166629551433</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>332.4413046666667</v>
+        <v>84.33238866666666</v>
       </c>
       <c r="H15">
-        <v>997.3239140000001</v>
+        <v>252.997166</v>
       </c>
       <c r="I15">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364715</v>
       </c>
       <c r="J15">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364714</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N15">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q15">
-        <v>837.9026836710141</v>
+        <v>10.63316166822155</v>
       </c>
       <c r="R15">
-        <v>7541.124153039128</v>
+        <v>95.69845501399401</v>
       </c>
       <c r="S15">
-        <v>0.2069103041759538</v>
+        <v>0.3423217248388892</v>
       </c>
       <c r="T15">
-        <v>0.2069103041759537</v>
+        <v>0.3423217248388892</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>332.4413046666667</v>
+        <v>84.33238866666666</v>
       </c>
       <c r="H16">
-        <v>997.3239140000001</v>
+        <v>252.997166</v>
       </c>
       <c r="I16">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364715</v>
       </c>
       <c r="J16">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364714</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N16">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q16">
-        <v>1172.442911921578</v>
+        <v>1.69761098386</v>
       </c>
       <c r="R16">
-        <v>10551.9862072942</v>
+        <v>15.27849885474</v>
       </c>
       <c r="S16">
-        <v>0.2895211153541107</v>
+        <v>0.05465252370206794</v>
       </c>
       <c r="T16">
-        <v>0.2895211153541107</v>
+        <v>0.05465252370206793</v>
       </c>
     </row>
   </sheetData>
